--- a/workspace/doc/xlsx/2015~2022수출실적 SBBHI.xlsx
+++ b/workspace/doc/xlsx/2015~2022수출실적 SBBHI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26807"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloudconvert\server\files\tasks\1cf6a18f-8933-4aef-bdad-17ff0dafa568\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE05E4E-04C0-40AB-A8F9-EE7560CC32DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0044E4B2-1FED-4B02-A26A-327692F41BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="168">
   <si>
     <t>○ 수출실적 SBHI []</t>
   </si>
@@ -1385,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CU308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="D290" sqref="D290"/>
+    <sheetView tabSelected="1" topLeftCell="BZ154" workbookViewId="0">
+      <selection activeCell="CI177" sqref="CI177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="11.25" customHeight="1"/>
@@ -26742,8 +26742,8 @@
       <c r="BW86" s="1">
         <v>50</v>
       </c>
-      <c r="BX86" s="1" t="s">
-        <v>120</v>
+      <c r="BX86" s="1">
+        <v>72.099999999999994</v>
       </c>
       <c r="BY86" s="1">
         <v>67.5</v>
@@ -53685,8 +53685,8 @@
       <c r="CH176" s="1">
         <v>150</v>
       </c>
-      <c r="CI176" s="1" t="s">
-        <v>120</v>
+      <c r="CI176" s="1">
+        <v>132.1</v>
       </c>
       <c r="CJ176" s="1">
         <v>125.9</v>
